--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,75 +422,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CFS</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>thread</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ULE</t>
+          <t>thread</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fibo - Runtime</t>
+          <t>5 mm :</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160s</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>158s</t>
+          <t>mm
+...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sysbench - Transactions/s</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
+          <t>warp</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>532</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sysbench - Avg. latency</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>441ms</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>125ms</t>
+          <t>warp</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="B1"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="A4"/>
     <mergeCell ref="C3"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="C1"/>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,52 +422,75 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>thread</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CFS</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>thread</t>
+          <t>ULE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5 mm :</t>
+          <t>Fibo - Runtime</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>160s</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mm
-...</t>
+          <t>158s</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>warp</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Sysbench - Transactions/s</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>warp</t>
+          <t>532</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sysbench - Avg. latency</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>441ms</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>125ms</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="B1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="A4"/>
     <mergeCell ref="C3"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="C1"/>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,83 +422,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SCH</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CFS</t>
+          <t>r</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ULE</t>
+          <t>∆</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Time (ms)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fibo - Runtime</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160s</t>
+          <t>0.0073446</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>158s</t>
+          <t>6.090759E−06</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>212</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sysbench - Transactions/s</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>0.0017162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>9.070621E−07</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>573</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sysbench - Avg. latency</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>441ms</t>
+          <t>0.0003023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>125ms</t>
+          <t>1.653511E−07</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7.9010275E−05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.420433E−08</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.00082241</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.477202E−08</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75662</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B1"/>
+  <mergeCells count="24">
+    <mergeCell ref="D4"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="A3"/>
+    <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="A1"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,163 +422,83 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SCH</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>CFS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>∆</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Time (ms)</t>
+          <t>ULE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Fibo - Runtime</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0073446</t>
+          <t>160s</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.090759E−06</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>212</t>
+          <t>158s</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Sysbench - Transactions/s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0017162</t>
+          <t>290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.070621E−07</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>573</t>
+          <t>532</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>Sysbench - Avg. latency</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0003023</t>
+          <t>441ms</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.653511E−07</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3080</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7.9010275E−05</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.420433E−08</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.00082241</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4.477202E−08</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>75662</t>
+          <t>125ms</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D4"/>
+  <mergeCells count="12">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C4"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D6"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,83 +422,1151 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CFS</t>
+          <t>patch size/ stride</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ULE</t>
+          <t>output size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>#1×1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>#3×3 reduce</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>#3×3</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>#5×5 reduce</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>#5×5</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pool proj</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ops</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fibo - Runtime</t>
+          <t>convolution</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160s</t>
+          <t>7×7/2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>158s</t>
+          <t>112×112×64</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2.7K</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>34M</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sysbench - Transactions/s</t>
+          <t>max pool</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>3×3/2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>532</t>
-        </is>
-      </c>
+          <t>56×56×64</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sysbench - Avg. latency</t>
+          <t>convolution</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>441ms</t>
+          <t>3×3/1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>125ms</t>
-        </is>
-      </c>
+          <t>56×56×192</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>112K</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>360M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>max pool</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3×3/2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28×28×192</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>inception (3a)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28×28×256</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>159K</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>128M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>inception (3b)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>28×28×480</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>380K</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>304M</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>max pool</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3×3/2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14×14×480</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>inception (4a)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14×14×512</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>364K</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>73M</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>inception (4b)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14×14×512</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>437K</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>88M</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>inception (4c)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14×14×512</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>463K</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>inception (4d)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14×14×528</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>580K</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>119M</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>inception (4e)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14×14×832</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>840K</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>170M</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>max pool</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3×3/2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7×7×832</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>inception (5a)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7×7×832</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1072K</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>54M</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>inception (5b)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7×7×1024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1388K</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>71M</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>avg pool</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7×7/1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1×1×1024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dropout (40%)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1×1×1024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1×1×1000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1000K</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1M</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>softmax</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1×1×1000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="240">
+    <mergeCell ref="I8"/>
+    <mergeCell ref="L9"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="G1"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="L11"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="K16"/>
+    <mergeCell ref="J14"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="K9"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="K11"/>
+    <mergeCell ref="J15"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="L15"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="L18"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="L1"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="L10"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="J16"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="I1"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="A13"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="J17"/>
+    <mergeCell ref="L17"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="L19"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="J9"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="A16"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="L5"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
+    <mergeCell ref="L14"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="D16"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="A20"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J18"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="L16"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="H1"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="J1"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="J10"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="K1"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="J20"/>
+    <mergeCell ref="L20"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="I17"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="D15"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="A19"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="C19"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="B16"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="F10"/>
     <mergeCell ref="B3"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="I11"/>
+    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="C20"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="J11"/>
+    <mergeCell ref="A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,335 +424,1149 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>dataset</t>
+          <t>patch size/ stride</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>protosyntax dev test</t>
+          <t>output size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>depth</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>lexical dev test</t>
+          <t>#1×1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>#3×3 reduce</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>#3×3</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>#5×5 reduce</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>#5×5</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pool proj</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ops</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELA</t>
+          <t>convolution</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3200h audiob.</t>
+          <t>7×7/2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>112×112×64</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.9</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2.7K</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>34M</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STELA deduplicated</t>
+          <t>max pool</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3200h audiob.</t>
+          <t>3×3/2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>56×56×64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>48.7</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>46.7</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSLM</t>
+          <t>convolution</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Librilight 6k</t>
+          <t>3×3/1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56×56×192</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>112K</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>360M</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSLM deduplicated</t>
+          <t>max pool</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Librilight 6k</t>
+          <t>3×3/2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>28×28×192</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>66.5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>73.8</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>70.5</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pGSLM - cont.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Librilight 6k</t>
-        </is>
-      </c>
+          <t>inception (3a)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>28×28×256</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>159K</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>128M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pGSLM - cont. + shift</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Librilight 6k</t>
-        </is>
-      </c>
+          <t>inception (3b)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>69.1</t>
+          <t>28×28×480</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>380K</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>304M</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pGSLM - disc.</t>
+          <t>max pool</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Librilight 6k</t>
+          <t>3×3/2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>67.6</t>
+          <t>14×14×480</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pGSLM - disc. + shift</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Librilight 6k</t>
-        </is>
-      </c>
+          <t>inception (4a)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>69.1</t>
+          <t>14×14×512</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72.9</t>
-        </is>
-      </c>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>364K</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>73M</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>inception (4b)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14×14×512</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>437K</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>88M</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>inception (4c)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14×14×512</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>463K</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>inception (4d)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14×14×528</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>580K</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>119M</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>inception (4e)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14×14×832</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>840K</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>170M</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>max pool</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3×3/2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7×7×832</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>inception (5a)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7×7×832</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1072K</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>54M</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>inception (5b)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7×7×1024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1388K</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>71M</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>avg pool</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7×7/1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1×1×1024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dropout (40%)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1×1×1024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1×1×1000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1000K</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1M</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>softmax</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1×1×1000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="240">
+    <mergeCell ref="I8"/>
+    <mergeCell ref="L9"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="G1"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="L11"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="K16"/>
+    <mergeCell ref="J14"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="K9"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="K11"/>
+    <mergeCell ref="J15"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="L15"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="L18"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="L1"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="L10"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="J16"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="I1"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="A13"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="J17"/>
+    <mergeCell ref="L17"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="L19"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="J9"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="A16"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="L5"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="L14"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="D16"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="A20"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J18"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="L16"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="H1"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="J1"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="J10"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="K1"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="J20"/>
+    <mergeCell ref="L20"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="H19"/>
     <mergeCell ref="A8"/>
     <mergeCell ref="D4"/>
+    <mergeCell ref="I17"/>
     <mergeCell ref="C8"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="D9"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="B4"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="D15"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="A19"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="C19"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="K3"/>
     <mergeCell ref="A9"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="F4"/>
     <mergeCell ref="E3"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="B7"/>
-    <mergeCell ref="C6"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="B16"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="F10"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="F6"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="I11"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
     <mergeCell ref="E5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="E8"/>
     <mergeCell ref="F7"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="A7"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="C20"/>
+    <mergeCell ref="E20"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="F5"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="E9"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="G13"/>
     <mergeCell ref="F8"/>
+    <mergeCell ref="A12"/>
     <mergeCell ref="F2"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="J11"/>
+    <mergeCell ref="A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,105 +424,181 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Dataset for Adapter</t>
+          <t>GPU tracking</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BST (Zero-Shot)</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>BST (Fine-Tuning)</t>
+          <t>RN-110</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RN-50</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>GNMT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>RHN</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BERT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ConvAI2</t>
+          <t>All</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.753</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8039</t>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>97%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WoW</t>
+          <t>Fine-grained</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.6222</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7751</t>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>99%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>Coarse-grained</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.6349</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7846</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.768</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.8167</t>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B1"/>
+  <mergeCells count="28">
+    <mergeCell ref="D4"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="G1"/>
+    <mergeCell ref="F1"/>
     <mergeCell ref="B4"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A1"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="A3"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="F3"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="G3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="A1"/>
+    <mergeCell ref="E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,178 +424,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GPU tracking</t>
+          <t>Jinwoo Hwang</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>Minsu Kim</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>RN-110</t>
+          <t>Daeun Kim</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RN-50</t>
+          <t>Seungho Nam</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>GNMT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>RHN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BERT</t>
+          <t>Yoonsung Kim</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>KAIST</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>KAIST</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>KAIST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97%</t>
+          <t>KAIST</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>97%</t>
+          <t>KAIST</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fine-grained</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Dohee Kim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Hardik Sharma</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
+          <t>Jongse Park</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Coarse-grained</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>KAIST</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+          <t>KAIST</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="20">
     <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="G1"/>
-    <mergeCell ref="F1"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
     <mergeCell ref="E3"/>
     <mergeCell ref="D1"/>
-    <mergeCell ref="G2"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="A1"/>
     <mergeCell ref="C4"/>
     <mergeCell ref="E4"/>
-    <mergeCell ref="F3"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="G3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="E2"/>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,117 +424,61 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Jinwoo Hwang</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Minsu Kim</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Daeun Kim</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Seungho Nam</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Yoonsung Kim</t>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KAIST</t>
+          <t>L(b,p) int f</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KAIST</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>KAIST</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>KAIST</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>KAIST</t>
+          <t>Latency function of batch size b and partition size p Interference overhead function</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLOi</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dohee Kim</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Hardik Sharma</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Jongse Park</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>SLO (in latency) of model i</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gpulet.size</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KAIST</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Google</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>KAIST</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Actual partition size of gpulet</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="B4"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="D1"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,70 +422,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Gangmuk Lim</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Jeongseob Ahn</t>
+          <t>IoU mask</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Wencong Xiao</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Youngjin Kwon</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Myeongjae Jeon</t>
+          <t>IoU vect.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UNIST</t>
+          <t>B [8]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ajou University</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alibaba Group</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>KAIST</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>UNIST</t>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B + C</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B + C + OV</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ours</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="B1"/>
-    <mergeCell ref="D1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,103 +422,611 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>IoU mask</t>
+          <t>Methods</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>IoU vect.</t>
+          <t>Argument Mining</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Argument Pair Extraction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>B [8]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>Pre.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rec.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Rec.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>F1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B + C</t>
+          <t>RR-Submission-v2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>PL-H-LSTM-CRF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>67.02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>19.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19.43</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>B + C + OV</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>MT-H-LSTM-CRF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>26.61</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ours</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>MLMC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>69.53</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>32.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MRC-APE-Bert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>42.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MRC-APE-Sep.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>41.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>38.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MRC-APE (Ours)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>41.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>38.17</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RR-Passage-v1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PL-H-LSTM-CRF</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>73.10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MT-H-LSTM-CRF</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MLMC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>40.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MRC-APE-Bert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>66.81</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>34.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MRC-APE-Sep.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>67.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MRC-APE (Ours)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>70.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>37.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>40.61</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="96">
+    <mergeCell ref="D12"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="B14"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="E14"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="A4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="A9"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="F10"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
